--- a/ketquabds.xlsx
+++ b/ketquabds.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="12" windowWidth="23040" windowHeight="12492" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cho thue nha hcm" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="nhà dat thue dn" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -49,7 +51,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -390,13 +392,4654 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="14.88671875" customWidth="1" min="2" max="2"/>
+    <col width="13.77734375" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tên</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Số đện thoại</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hữu Vinh Vihomes</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0909911394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>phamtthuyvi1608@gmail.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-ben-van-don-phuong-12-prj-saigon-royal-residence/pkd-chuyen-cho-1-2-3pn-office-full-nt-va-khong-nt-gia-tu-10tr-30tr-th-pr29833237</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hữu Vinh Vihomes</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0909911394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>thuyvi.vihomes.net@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-ben-van-don-phuong-6-prj-masteri-millennium/pkd-chuyen-cho-1-2-3pn-office-full-nt-va-khong-nt-gia-tu-8tr-30tr-th-0963694979-pr29832622</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Khải Vy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0938.102.901</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>muabanchungcuquan2@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-nguyen-huu-canh-phuong-22-prj-saigon-pearl/gap-cho-3pn-sai-gon-135m2-gia-chi-20-trieu-thang-bao-phi-quan-ly-noi-that-dep-pr29907963</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lan Hương</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0931936360</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>lanhuong4080@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-nguyen-huu-canh-phuong-22-prj-saigon-pearl/14-5-trieu-bao-phi-ngay-2pn-90m2-full-noi-that-gia-kng-the-tot-n-pr30646398</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lê Văn Kiên</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0912639118</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>levankien118@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-nguyen-van-linh-phuong-tan-phong-9-prj-urban-hill/gia-dinh-c-phu-my-hung-3pn-gia-28-trieu-thang-chinh-chu-pr30647274</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lê Văn Kiên</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0912639118</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>levankien118@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-phuong-tan-phu-19-prj-midtown-phu-my-hung/chinh-chu-c-moi-100-gia-15-trieu-hinh-that-100-pr30023436</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cô Liễu</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0913450566</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>xatanchuong@gmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-3-2-2-phuong-12-5-prj-hado-centrosa-garden/-for-rent-c-ha-do-quan-10-tp-chi-minh-english-below-pr30714356</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Tuấn</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0948887376</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>nguyenhuyphuc8790@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-mai-chi-tho-phuong-an-phu-prj-the-sun-avenue/that-100-ch-1pn-officetel-40m-7tr-full-9tr-2pn76m-11tr-3pn-90m2-13tr-pr30273798</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lan Hương</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0931936360</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>lanhuong4080@gmail.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-66-1-phuong-thao-dien-prj-tropic-garden/chi-14-trieu-thang-ngay-lau-6-full-cao-cap-may-giat-may-say-lo-nuong-may-loc-nuoc-pr30646376</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mr Thiện</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0912752268</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>thienhomes.hcm@gmail.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-ben-van-don-phuong-12-prj-saigon-royal-residence/pkd-cho-gia-hot-mua-covid-officetel-9tr-thang-2pn-15tr-thang-3pn-27tr-thang-pr30449950</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mr Thiện</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0912752268</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>thienhomes.hcm@gmail.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-ben-van-don-phuong-6-prj-masteri-millennium/cuc-hot-mua-covid-pkd-cho-studio-7-5tr-thang-2pn-15tr-th-3pn-25tr-th-lh-0912752268-pr30449827</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mr Thiện</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0912752268</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>thienhomes.hcm@gmail.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-ben-van-don-phuong-12-prj-the-tresor/pkd-cho-gia-cuc-hot-mua-covid-studio-8tr-th-2pn-16tr-th-3pn-20tr-th-lh-0912752268-pr30449863</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mr Thiện</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0912752268</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>thienhomes.hcm@gmail.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-ben-van-don-phuong-6-prj-river-gate/lh-0912752268-de-duoc-rivergate-gia-tot-nhat-thi-truong-studio7-5tr-th-2pn-16tr-th-3pn-20tr-th-pr30449916</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mai Chiến Công</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0946867694</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Maichiencong79@gmail.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-nguyen-van-linh-phuong-tan-thuan-tay-1-prj-eco-green-sai-gon/c-q7-gio-hang-t4-2021-gia-chi-tu-8-5-tr-nhan-nha-o-ngay-pkd-0946867694-pr29267184</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Lan Hương</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0931936360</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>lanhuong4080@gmail.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-nguyen-huu-canh-phuong-22-prj-the-manor-tp-ho-chi-minh/cho-gap-studio-38m2-gia-thap-ky-luc-pr30646424</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Phương Thảo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0933682167</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-mai-chi-tho-phuong-an-phu-prj-the-sun-avenue/ch-cho-gia-cuc-re-nha-rong-con-rat-moi-view-song-thoang-mat-lh-0932779102-pr30210721</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chính Chủ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0909798122</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-phung-van-cung-phuong-7-11/chinh-chu-c-studio-quan-phu-nhuan-view-dep-dien-tich-25-38m2-tien-ich-day-du-pr25328351</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Võ Mỹ Thoa</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0942508611</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>thoavo300394@gmail.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-song-hanh-phuong-phu-huu-2-prj-jamila-khang-dien/giu-key-nhieu-kd-q9-1pn-2pn-3pn-chi-tu-6-2-tr-th-0942-508-611-thoa-luon-co-gia-tot-pr30643002</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hoàng Tuấn</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0948887376</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-nguyen-huu-tho-xa-phuoc-kieng-prj-sunrise-riverside/doc-quyen-gia-re-ch-2pn-9tr-full-nt-11-5tr-3pn-12-5tr-xem-nha-ngay-pr25282862</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Thu Trang</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0946220732</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-1-phuong-truong-tho-2-prj-lavita-charm/cho-sap-ban-giao-gia-chi-6tr-pr29305044</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Thủ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0918640799</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-1-phuong-truong-tho-2-prj-lavita-charm/chu-nha-cho-ch-gia-re-1pn-1wc-52m2-0984543251-pr30483593</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Phương Thảo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0932779102</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-1-phuong-truong-tho-2-prj-lavita-charm/ro-c-gia-re-day-du-loai-dien-tich-nha-moi-full-tien-ich-lh-0932779102-pr30300424</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Trần Huỳnh Phương Diễm</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0918722466</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>lamhuynhbt1996@gmail.com</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-nguyen-huu-tho-xa-phuoc-kieng-prj-sunrise-riverside/chinh-chu-cho-nhieu-ch-2pn-9-11tr-th-3pn-11-15tr-th-xem-nha-24-24-goi-0918722466-pr27084547</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nguyên</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0931230064</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-1-phuong-truong-tho-2-prj-lavita-charm/-ngay-da-ban-giao-nha-moi-chi-tu-6tr-bao-phi-quan-li-co-bot-loc-nhe-0931230064-pr29776552</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Phòng Kinh Doanh</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0705769999</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>thuthiemsaigon2017@gmail.com</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-phan-van-dang-phuong-thanh-my-loi-prj-vista-verde/cap-nhat-8-2021-25-c-gia-tot-nhat-co-chia-ka-coi-nha-ngay-24-7-pr30689683</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Thu Trang</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0911850019</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-mai-chi-tho-phuong-an-phu-prj-the-sun-avenue/-cho-dt-51m2-off-gia-5tr-ntcb-full-nt-6-5tr-1-duy-nhat-0911850019-pr30688239</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Huyền</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0946220732</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-mai-chi-tho-phuong-an-phu-prj-the-sun-avenue/cc-cao-cap-avennue-chpo-gia-re-52m2-1pn-1wc-0946220732-pr30473716</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Minh Luân</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0908328568</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>thuongthi1205@gmail.com</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-mai-chi-tho-phuong-binh-khanh-prj-new-city-thu-thiem/gia-sieu-t-1pn-1wc-dt-46-61m2-noi-that-day-du-13-trieu-thang-lh-0908328568-pr30163438</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Phương Anh</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0939720039</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-mai-chi-tho-phuong-an-phu-prj-the-sun-avenue/-offictel-o-cc-dt-52m2-gia-voi-5tr-th-full-noi-that-huong-dn-lh-0937-080094-pr30472577</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chu Thị Thanh Thư</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0981783185</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>thanhthuchu6997@gmail.com</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-pho-59-phuong-14-8-prj-dream-home/-c-full-nt-o-dreamme-luxury-dt-64m2-2-pn-2-wc-gia-8tr-th-lh-0931337445-pr28921216</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Gia Hân</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0932100172</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-mai-chi-tho-phuong-an-phu-prj-the-sun-avenue/ch-nha-moi-2pn-78m2-full-nt-10tr-nha-moi-full-nt-don-vao-o-ngay-0932100172-pr30703331</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Phương Trinh</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0932139007</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-mai-chi-tho-phuong-an-phu-prj-the-sun-avenue/chinh-chu-cho-ch-o-cc-dt-80m2-2pn-2wc-nt-moi-100-tang-thap-lh-0932-139-007-pr30459347</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Quyên</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0946220732</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-1-phuong-truong-tho-2-prj-lavita-charm/c-2pn-2wc-gia-6tr-th-noi-that-cdt-bao-phi-ql-6-thang-dau-0946220732-pr30395823</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Huyền</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0918640799</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-1-phuong-truong-tho-2-prj-lavita-charm/c-2pn-2wc-8tr-th-full-noi-that-bao-phi-ql-1-nam-0911850019-pr29254544</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nhung</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0918541898</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-xa-lo-ha-noi-phuong-hiep-phu-prj-sai-gon-gateway/cho-saigon-q9-2pn-1wc-1pn-5tr-th-2wc-6tr-th-3pn-8-tr-th-lh-0986092767-dung-pr28447701</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nhung</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0968364060</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-1-phuong-truong-tho-2-prj-lavita-charm/c-2pn-2wc-6tr-th-full-noi-that-bao-phi-ql-1-nam-0968364060-pr30367110</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Lê Dũng</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0705252630</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>swinglee93@gmail.com</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-mai-chi-tho-phuong-an-phu-prj-lexington-residence/c-1pn-noi-that-cao-cap-gia-tu-10-11tr-thang-lh-0705252630-dung-pr29105017</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Võ Hoàng Ngân</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0936777853</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>nganvo4211@gmail.com</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-vo-van-kiet-phuong-an-lac-6-prj-akari-city-nam-long/cho-75m2-2pn-2wc-ban-cong-7-5tr-thang-da-bao-phi-quan-ly-pr30620099</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Trần Thị Ngọc Điệp</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0965433534</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>tranthingocdiep0104@gmail.com</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-song-hanh-phuong-an-phu-prj-palm-heights/giam-gia-mua-dich-cho-ch-2pn-77m2-full-nt-tai-13tr-bao-phi-pr30722780</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lê Dũng</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0705252630</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>swinglee93@gmail.com</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-can-ho-chung-cu-duong-mai-chi-tho-phuong-an-phu-prj-centana-thu-thiem/c-sieu-dep-1pn-view-landmark-gia-10-5-trieu-thang-lh-0705252630-pr29161145</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D198"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D198"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tên</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Số đện thoại</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hữu Tài</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0903999498</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tainguyenvn.tainguyen@gmail.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-quoc-lo-13-phuong-hiep-binh-phuoc/chinh-chu-cho-gap-gan-kdc-van-phuc-tp-thu-duc-3-lau-vi-tri-dep-chi-19tr-thang-pr30625239</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lê Văn Kiên</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0912639118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>levankien118@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-luong-bang-1-phuong-tan-phu-19-prj-khu-pho-nam-thong-ii/-giam-gia-dich-cho-biet-thu-goc-my-hung-thich-hop-o-va-lam-van-phong-pr30288768</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lê Văn Kiên</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0912639118</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>levankien118@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ha-huy-tap-phuong-tan-phu-19-prj-biet-thu-lau-dai-chateau/cho-my-hung-q7-chinh-chu-0912639118-le-kien-hinh-that-100-pr29997432</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lê Văn Kiên</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0912639118</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>levankien118@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-phuong-tan-phong-9-prj-phu-my-hung/chinh-chu-cho-biet-thu-can-goc-quan-7-gia-35-trieu-thang-lien-he-0912639118-pr30647040</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Phong Propzy</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0909881874</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>phong.bui@propzy.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-trinh-quang-nghi-xa-phong-phu-4-prj-lovera-park/-pho-cho-khu-don-vao-la-o-5x16-1-tret-2-lau-3pn-3wc-pr30575036</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tran Thi Ngoc Van</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0903347202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vantranthingoc0808@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-dinh-cong-trang-phuong-tan-dinh-2/cho-nguyen-can-37-3-quan-1-hcmc-pr30687592</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bùi Tấn Giàu</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0909121556</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>giaubuireal@gmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-vo-chi-cong-phuong-phu-huu-2-prj-mega-ruby/chinh-chu-can-cho-pho-kinh-doanh-kdc-khang-dien-gia-15-trieu-thang-pr30721362</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nguyen Van An</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0984459878</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>nguyenvanan878@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-thi-huong-thi-tran-nha-be/cho-can-goc-hai-mat-tien-4mx9m-tai-hem-bp-kp7-lh-a-an-0984459878-pr29740323</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Bình</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0907394466</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nguyenbinhvietdo3939@gmail.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-quan-7/can-cho-gap-mat-bang-huynh-tan-phat-q7-dt-10x30m-gia-75t-thang-lh-0907-39-4466-binh-pr30720843</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Bình</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0907394466</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nguyenbinhvietdo3939@gmail.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-quan-7/cho-gap-ks-5-tang-co-thang-may-dt-12x40m-lh-0907-39-4466-binh-pr30720827</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ngô Thị Bình Quyên</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0936295565</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>quyenngo2905@gmail.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-8-phuong-linh-trung/-ban-hoac-cho-91-37-tp-thu-duc-pr30132853</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duy Khánh Trương</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0909797244</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nhadatkhangdien.com@gmail.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-lien-phuong-phuong-phu-huu-2-prj-lucasta-villa/cho-biet-thu-cao-cap-tai-175m2-250m2-320m2-pr26217895</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Duy Khánh Trương</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0909797244</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>nhadatkhangdien.com@gmail.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-bung-ong-thoan-phuong-phu-huu-2-prj-park-riverside-tan-cang/chuyen-cho-pho-biet-thu-quan-9-cho-pho-full-noi-that-10tr-thang-pr28559438</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chị Tuyết</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0931235177</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-hoa-binh-1-phuong-hiep-tan/cho-moi-xay-237-32-6-3-quan-phu-pr30719731</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Thiên Gia Bình</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0947394466</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>thiengiabinh4466@gmail.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-xa-binh-hung-1-prj-khu-dan-cu-trung-son/cho-gap-ks-kdc-gom-40-phong-full-noi-that-hien-dai-gia-con-thuong-luong-pr30719922</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bds Tân Hoàng Nam</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0904787870</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ngoctuu@thng.vn</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-71-1-phuong-tan-quy/khong-nguoi-trong-coi-sang-nhuong-khu-can-ho-cao-cap-32p-ngay-trung-tam-q7-vao-kd-ngay-pr25956874</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bùi Lê Thế Kiệt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0919269698</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>builethekietbh@gmail.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-phan-xich-long-phuong-7-11/chinh-chu-cho-hxh-6m-tien-kinh-doanh-vp-shop-4x10m-1-tret-1-lau-pr24435587</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nguyễn Hòa Lê</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0907894503</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hoalegd@gmail.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-phuong-tan-phong-9-prj-my-giang/can-cho-biet-thu-cao-cap-phu-hung-quan-7-gia-2000-th-lh-0907894503-pr25215320</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Anh Nguyễn</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0901886349</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>anh.nguyen7@propzy.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-bach-dang-phuong-24/cho-nguyen-can-full-noi-that-24-binh-thanh-pr30717066</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Đặng Thị Nhân Tâm</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0932723936</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>thienminhcapital120@gmail.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-pho-pho-duc-chinh-66/hang-nong-cho-can-goc-2mt-duy-nhat-re-nhat-giap-q1-dt-245m-kc-t3lst-gia-chi-30tr-pr30199816</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0918015552</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-bui-the-my-phuong-10-10/-cho-chinh-chu-gia-re-quan-tan-binh-gia-4-5-trieu-thang-pr30718027</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0328495695</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-truong-chinh-phuong-tay-thanh/cho-nguyen-can-quan-tan-phu-pr30717986</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0937592282</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tran-quang-co-phuong-phu-thanh/cho-q-tan-phu-pr30717968</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0879186028</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-huong-lo-2-phuong-binh-tri-dong-a/cho-840-147-6-7-2-p-tn-ho-chi-minh-pr30717953</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0909229606</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-binh-tri-dong-phuong-binh-tri-dong/cho-tan-ho-chi-minh-pr30717930</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0862037465</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-le-van-khuong-phuong-thoi-an-1/chinh-chu-cho-nguyen-can-moi-xay-pr30717895</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0909361636</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-huynh-tan-phat-phuong-phu-thuan-3/-mot-tret-mot-lau-80m2-q7-gia-chi-7-5-trieu-thang-pr30717864</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0799932012</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-le-van-luong-phuong-tan-hung-14/-1-lau-duc-200m2-gia-cho-10-trieu-thang-pr30717840</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0589313006</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-kenh-tan-hoa-phuong-hoa-thanh/cho-nguyen-can-chinh-chu-quan-phu-pr30717834</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0846999092</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-thoi-an-09-phuong-thoi-an-1/cho-09-qu-12-ho-chi-minh-pr30717823</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0938765165</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-huynh-tan-phat-phuong-phu-thuan-3/-tret-60m2-cho-q7-5-trieu-thang-pr30717820</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0567632913</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-go-dau-phuong-tan-quy-2/-dep-nguyen-can-1-lau-2-phong-ngu-hem-xe-hoi-pr30717814</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0936776561</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-go-dau-phuong-tan-quy-2/cho-p-q-phu-pr30717807</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0938866590</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-thanh-loc-41-phuong-thanh-loc-3/cho-41-quan-12-ho-chi-minh-pr30717798</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0918587667</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-au-co-phuong-10-10/chinh-chu-nguyen-can-hem-gia-8tr-th-pr30717777</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0898867107</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-huynh-tan-phat-phuong-tan-phu-19/-1-tret-2-lau-q7-cho-gia-9-trieu-thang-36m2-pr30717764</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0902310475</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-au-co-69/cho-dt-24m2-2-l-gia-8-5-trieu-thang-pr30717752</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0703961102</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-bach-dang-phuong-2-22/cho-nguyen-can-1-lau-hem-xe-tai-khu-san-bay-gia-11-tr-th-pr30717739</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0702649586</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-8-phuong-tan-quy/-nguyen-can-1-tret-1-lau-8-q7-3-5-trieu-thang-12m2-pr30717734</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0377243864</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-dang-minh-tru-phuong-10-10/cho-3x13m-1-tret-1-gac-duc-tai-quan-tan-binh-6-tr-th-pr30717718</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0969131505</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-cong-lo-phuong-15-8/cho-re-moi-4x8m-2pn-1-lau-p15-tan-binh-gia-6tr-th-pr30717627</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0799151236</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tran-van-quang-69/cho-tan-binh-gia-8-5tr-th-pr30717617</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0705206592</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-hoang-bat-dat-phuong-15-8/cho-nguyen-can-gia-re-gan-khu-cong-nghiep-tan-binh-hcm-pr30717597</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0397049469</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-phan-huy-ich-phuong-15-8/cho-nguyen-can-gia-7-5tr-th-pr30717540</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0902489206</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-le-trong-tan-phuong-son-ky/-dep-vi-tri-dep-khu-pho-van-hoa-dai-han-pr30717531</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0932666790</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-me-coc-phuong-15-2/-1-tret-1-lau-2-pn-74m2-co-noi-that-co-ban-pr30717490</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0772012487</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-pham-the-hien-phuong-6-10/-1-tret-1-lau-p-6-q-8-pr30717416</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Trần Quang Hiển</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0906648756</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>tqhien@gmail.com</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-chi-thanh-phuong-12-2/-cho-can-quan-5-pr24127405</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Doan Van Huy</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-huu-tho-xa-phuoc-kieng-prj-lavila-kien-a-nha-be/cho-bt-day-du-noi-that-05-pn-04-wc-gia-18-tr-th-pr26580526</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Doan Van Huy</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-huu-tho-xa-phuoc-kieng-prj-nine-south-estates/can-cho-biet-thu-sang-trong-kien-lh-0931-777-200-pr20456640</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Doan Van Huy</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-11-1-phuong-tan-hung-14-prj-khu-do-thi-him-lam-kenh-te/cho-quan-7-dt-5x20m-tret-2-lau-san-thuong-4-phong-5wc-pr30206578</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>doan van huy</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-1-xa-phuoc-kieng-prj-sadeco-phuoc-kien/cho-biet-thu-tai-du-an-be-tp-hcm-dien-tich-200m2-gia-20-trieu-th-pr11672117</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0934124503</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-duong-duc-hien-phuong-tay-thanh/-cho-nho-xinh-quan-tan-phu-pr30717167</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0328582587</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-vuon-lai-phuong-phu-tho-hoa/hem-vip-4x13-1-lau-2pn-gia-9tr-moi-pr30717156</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0938236839</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tay-thanh-phuong-tay-thanh/-cho-tan-phu-pr30716834</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0909946775</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-truong-chinh-phuong-tay-thanh/-dep-2-lau-cho-o-tan-phu-pr30716745</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0931559454</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-go-dau-phuong-tan-quy-2/-7tr-moi-99-hem-6m-4x12m-co-lau-2-phong-pr30716708</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0908378326</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tan-huong-phuong-tan-quy-2/nguyen-can-hem-4m-4x13m-co-lau-2-phong-ngu-pr30716674</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nguyenvanphuc</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0908156643</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Phuc05552@gmail.com</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-le-ngung-phuong-tan-tao-a/cho-nguyen-can-a-pr29702293</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0937746385</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tan-huong-phuong-tan-quy-2/hem-thong-4m-4x12m-co-lau-2-phong-pr30716635</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0933249631</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-doc-lap-phuong-tan-quy-2/-moi-dep-y-hinh-hem-thong-4x12m-co-lau-pr30716615</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0906377512</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-dinh-khoi-phuong-4-20/cho-1-23-9-q-tan-binh-gia-7tr-thang-pr30716605</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0933134503</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-huu-tien-phuong-son-ky/cho-mua-dich-quan-tan-phu-pr30716443</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chị Thy</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0909679709</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-9-phuong-linh-tay/cho-o-trung-tam-thu-duc-pr30273630</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Nhân</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0938602838</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vannhan161183@gmail.com</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-phuong-tan-phong-9-prj-hung-thai/cho-3-can-pmh-quan-7-gia-30-35tr-thang-lien-he-0938602838-nhan-pr25157928</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Lê Trường Giang</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0911867700</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>giangdtnland@gmail.com</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-song-hanh-phuong-an-phu-prj-khu-do-thi-lakeview-city/cho-q2-full-day-du-noi-that-view-dep-gia-28tr-th-lh-0911867700-pr30204880</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Phạm Thị Kim Ngân</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0911960809</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>nganphamdtnland@gmail.com</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-song-hanh-phuong-an-phu-prj-khu-do-thi-lakeview-city/chinh-chu-can-cho-gap-noi-that-dep-gia-25tr-thang-pr29222168</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nguyễn Thành</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0909622375</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>nguyenthuyetmta@gmail.com</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-160-phuong-tang-nhon-phu-a/cho-1-tret-2-lau-full-noi-that-12-trieu-160-la-xuan-oai-quan-9-pr29912227</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ngọc Bích</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0931155698</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>benniyoo@gmail.com</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-20-5-phuong-tan-phu-19-prj-my-gia-1/can-cho-biet-thu-1-hung-quan-7-moi-full-noi-that-tot-t-mua-2021-pr28766000</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Anh Công</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0935271111</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>saigoncenterreal036@gmail.com</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-cach-mang-thang-tam-phuong-15-3/cho-nc-q10-giam-gia-mua-dich-pr30461044</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Toantran.villas</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0903664575</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>strawberry1980@gmail.com</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-phuong-hiep-binh-phuoc-prj-thu-duc-garden-homes/cho-biet-huong-dong-bac-3-phong-ngu-pr22458798</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Toantran.villas</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0903664575</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>strawberry1980@gmail.com</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-phuong-hiep-binh-chanh-prj-thu-duc-garden-homes/cho-biet-san-vuon-rong-pr13655855</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Mr.phú</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0888600766</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>thaodienbatdongsanuyen@gmail.com</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-van-huong-phuong-thao-dien/cho-biet-thu-quan-2-tich-500m2-gia-tot-pr29359028</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Lê Văn Kiên</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0912639118</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>levankien118@gmail.com</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-phuong-tan-phong-9-prj-phu-my-hung/cho-biet-thu-quan-7-noi-that-cao-cap-co-ho-boi-rieng-pr30647022</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Lê Văn Kiên</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0912639118</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>levankien118@gmail.com</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ha-huy-tap-phuong-tan-phu-19-prj-biet-thu-lau-dai-chateau/chinh-chu-cho-vip-my-hung-quan-7-moi-100-ho-tro-xem-mua-dich-24-24-pr30568332</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Phan Thanh Tùng</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0908442698</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>cenreagroup@gmail.com</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-quoc-lo-13-phuong-hiep-binh-phuoc/toa-cho-vp-moi-xay-ngang-15m-tai-325-13-thu-duc-pr30319758</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0785183696</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ha-huy-giap-phuong-thanh-loc-3/can-cho-tnh-quan-12-pr30712181</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0793643364</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-lam-thi-ho-64/c-158-70-7-q12-pr30712151</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0366444995</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-thanh-xuan-14-phuong-thanh-xuan/-cho-113-4-tx14-q12-pr30712140</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0978211121</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-thoi-an-13-phuong-thoi-an-1/cho-nguyen-c-13-pr30712114</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0908600991</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tan-chanh-hiep-36-phuong-tan-chanh-hiep-1/cho-36-quan-12-pr30712101</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0364991659</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tan-thoi-hiep-21-phuong-tan-thoi-hiep/-cho-21-q12-pr30711953</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0909924861</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-quoc-lo-13-phuong-an-phu-dong-1/cho-13-qu-12-pr30711936</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0935246457</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tan-thoi-hiep-7-phuong-tan-thoi-hiep/cho-nguyen-can-hem-oto-233-20-tth07-q12-pr30711871</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0906575911</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-2-phuong-binh-hung-hoa-a/cho-nguyen-cn-8-22-2-tn-pr30711805</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Dang Le Quynh My</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0904118355</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Danglequynhmy@gmail.com</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-thuong-hien-phuong-1-21/chinh-chu-cho-can-hem-3-2m-p1-gv-82m2-9tr-thang-pr24115493</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0589500780</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-thai-son-phuong-5-15/-can-gia-re-mua-dich-o-ngay-duoc-pr30711787</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0355060894</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-quang-trung-phuong-10-8/cho-10-go-vap-pr30711776</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0908068500</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-bui-dinh-tuy-phuong-12-7/cho-12-binh-thanh-ho-chi-minh-pr30711681</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0926408363</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-3-phuong-hiep-binh-chanh/cho-48-3-p-thu-duc-pr30711675</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0974465611</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-bui-dinh-tuy-phuong-12-7/cho-12-binh-thanh-ho-chi-minh-pr30711662</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0908136335</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-21-1-phuong-8-12/-1-tret-1-lau-dtsd-75m2-21-p-8-go-vap-pr30711660</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0906571506</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-binh-quoi-phuong-28/cho-co-gac-suot-480-31-2-9-28-thanh-pr30711653</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0329088522</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-hong-phuong-1-21/-can-1-go-vap-pr30711636</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>00979446005979446005</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-hoang-hoa-tham-phuong-5-14/cho-hem-200-5-binh-thanh-ho-chi-minh-pr30711633</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0901412155</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-thong-nhat-phuong-11-8/cho-t-11-go-vap-pr30711590</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0938797055</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-2-phuong-16-3/-cho-2-16-go-vap-pr30711550</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0906792565</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-4-phuong-16-3/cho-4-16-go-vap-pr30711533</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0914211212</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-19-phuong-8-12/cho-moi-19-8-go-vap-pr30711492</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0868992062</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-816-phuong-phu-huu-2/-san-vuon-thoang-mat-khu-biet-thu-816-12-trieu-thang-200-m2-pr30711278</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0902767724</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-xien-phuong-long-thanh-my/-cho-gia-re-mua-dich-20-trieu-thang-140-m2-pr30711206</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0989035512</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-30-phuong-6-14/cho-mat-tien-hem-30-p-6-go-vap-pr30711152</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0857691252</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-6-4-phuong-tang-nhon-phu-b/-1-tret-1-lau-60m2-6-p-tnpb-q9-8-trieu-thang-pr30711085</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Phan Văn Điền</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0982667473</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>phanvandienkt@gmail.com</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-vo-chi-cong-phuong-phu-huu-2-prj-melosa-garden/chinh-chu-cho-pho-dien-tich-5x16-full-noi-that-cao-cap-goi-ngay-0982667473-pr24494326</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Phan Văn Điền</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0982667473</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>phanvandienkt@gmail.com</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-vo-chi-cong-phuong-phu-huu-2-prj-mega-village/chinh-chu-cho-can-5x15-full-noi-that-du-an-huong-dong-nam-goi-ngay-0982667473-pr28838490</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Phan Văn Điền</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0982667473</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>phanvandienkt@gmail.com</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-vo-chi-cong-phuong-phu-huu-2-prj-melosa-garden/chinh-chu-cho-pho-khang-dien-5x16-full-noi-that-goi-ngay-0982667473-pr30069282</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0904955330</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-2-phuong-tang-nhon-phu-b/-1-tret-1-lau-2-quan-9-8-trieu-thang-72-m2-pr30711055</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0906838552</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tran-van-kieu_1-phuong-10-4/-1-tret-1-lau-gan-mega-market-q6-pr30710858</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0938696772</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ba-hom-phuong-13-3/-1tret-1-lau-24m2-76-22-c1g-p13-q6-pr30710840</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Đặng Tất Tú</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0917330220</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>tattudtnland@gmail.com</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-song-hanh-phuong-an-phu-prj-khu-do-thi-lakeview-city/can-cho-gap-pho-gia-22tr-thang-noi-that-dep-lh-tu-0917330220-pr30175048</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Trần Minh Tùng</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0915932936</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>park.riverside1@gmail.com</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-bung-ong-thoan-phuong-phu-huu-2-prj-villa-park/cho-biet-thu-3-tang-du-an-quan-9-gia-re-nhat-hien-tai-lh-0915-932-936-mr-tung-pr16914396</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Nguyễn Quang Nhật</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0937226899</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>nhat.nguyen2@propzy.com</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-51-phuong-binh-thuan-3/-nguyen-can-mat-tien-51-quan-7-pr28889686</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Thành Kenny</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0965949769</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>tranvanthanhx3@gmail.com</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-dang-van-bi-phuong-binh-tho/chinh-chu-cho-nguyen-can-1-tret-3-lau-4pn-4wc-trung-tam-tp-thu-duc-18tr-thang-pr29044126</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Lương Thái Bằng</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0983697777</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>luongthaibang@gmail.com</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-huynh-tan-phat-phuong-tan-thuan-tay-1/bds-gia-phuc-chuyen-muc-bds-cho-q7-pr30709394</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ngọc Bích</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0931155698</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>benniyoo@gmail.com</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-19-phuong-tan-phu-19-prj-biet-thu-lau-dai-chateau/cho-vip-khu-my-hung-quan-7-4pn-co-thang-may-noi-that-cao-cap-0931155698-pr28230983</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0982801386</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Hoangapplemobile@gmail.com</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-100-binh-thoi-phuong-14-6/cho-nguyen-can-q11-co-3pn-2wc-thuan-tien-hem-thong-an-ninh-pr30118001</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Trần Thị Cẩm Giang</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0986038318</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>chande360@gmail.com</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tan-hoa-dong-phuong-binh-tri-dong/-mat-tien-1-tret-1-lau-72m2-quan-tan-pr30367935</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Anh Đăng</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0915385798</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>nguyenkhang260309@gmail.com</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-pho-ta-quang-buu-phuong-5-11/mat-tien-noi-khu-p5-q-8-dt-5x20-3-lau-pr30708702</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Doan Van Huy</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-huu-tho-xa-phuoc-kieng-prj-lavila-kien-a-nha-be/can-cho-gap-bt-dt-6x17-6-thiet-ke-4pn-full-noi-that-cao-cap-chinh-chu-xem-nha-pr26580478</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Doan Van Huy</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-huu-tho-xa-phuoc-kieng-prj-nine-south-estates/can-cho-gap-bt-ninesouth-can-goc-dt-180m2-thiet-ke-5pn-moi-decor-lh-0931-777-200-pr26580398</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Doan Van Huy</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-huu-tho-xa-phuoc-kieng-prj-lang-dai-hoc-abc/toi-can-cho-biet-thu-san-vuon-khu-b-lk-q7-noi-that-cao-cap-gia-25-trieu-pr13135934</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Doan Van Huy</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-huu-tho-xa-phuoc-kieng-prj-khu-biet-thu-ngan-long/cho-gap-7pn-dt-210m2-full-noi-that-decor-dep-lh-0931-777-200-pr13135862</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Doan Van Huy</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-le-van-luong-xa-phuoc-kieng-prj-sadeco-phuoc-kien/cho-biet-thu-5pn-4wc-noi-that-cao-cap-0931-777-200-pr11809172</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Doan Van Huy</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-xa-phuoc-kieng-prj-sadeco-phuoc-kien/gia-sieu-re-cho-pho-5x20-1-tret-3-lau-5pn-gia-20tr-th-full-nt-moi-100-pr21212176</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Doan Van Huy</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-huu-tho-xa-phuoc-kieng-prj-khu-biet-thu-ngan-long/cho-gap-bt-3-lau-1-tret-1-tum-dt-10mx20m-0931-777-200-pr11902947</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Doan Van Huy</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0931777200</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>khaiminhlandkhunam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-14-1-phuong-tan-hung-14-prj-khu-do-thi-him-lam-kenh-te/can-cho-gap-7-5x20m-gia-45-trieu-thang-lh-0931777200-pr30206441</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Đặng Tất Tú</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0917330220</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>tattudtnland@gmail.com</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-song-hanh-phuong-an-phu-prj-khu-do-thi-lakeview-city/-cho-pho-nguyen-can-gia-20tr-35tr-thang-noi-that-dep-lh-tu-0917330220-pr30243688</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Đặng Tất Tú</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0917330220</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>tattudtnland@gmail.com</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-song-hanh-phuong-an-phu-prj-khu-do-thi-lakeview-city/cho-pho-hoan-thien-day-du-noi-that-cao-cap-gia-30tr-thang-lh-0917330220-pr29543395</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Phường Vạn Phúc</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0901268229</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>nnphuong.itcs@gmail.com</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-10-phuong-hiep-binh-phuoc-prj-khu-do-thi-van-phuc-city/cho-nguyen-can-thu-duc-noi-that-rat-dep-gia-tot-28-trieu-th-pr22396273</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Hằng Ni</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0938449092</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>batdongsanmn02@gmail.com</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-quang-trung-phuong-11-8/cho-tn-nguyen-can-hxh-20m-gv-ngay-cho-hanh-thong-tay-dt-6-4x8-5m-3-lau-0938449092-pr24237801</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hằng Ni</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0938449092</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>batdongsanmn02@gmail.com</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-le-thanh-ton-phuong-ben-nghe/cho-11-phong-chdv-quan-1-noi-that-cao-cap-37-trieu-thang-0938449092-pr25736301</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Đinh Nguyễn Trường Sơn</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0901424068</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>sondnt068@gmail.com</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-hoang-quoc-viet-phuong-phu-my-9-prj-khu-dan-cu-phu-my/cho-biet-thu-lon-thuan-tien-kinh-doanh-full-noi-that-dep-gia-45tr-thang-pr26470660</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Lê Văn Kiên</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0912639118</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>levankien118@gmail.com</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-phuong-tan-phong-9-prj-phu-my-hung/gia-dinh-can-cho-biet-thu-quan-7-can-goc-cong-vien-moi-100-pr30442718</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Lê Văn Kiên</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0912639118</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>levankien118@gmail.com</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-phuong-tan-phong-9-prj-phu-my-hung/cho-biet-thu-san-vuon-quan-7-moi-100-co-ho-boi-va-karaoke-tai-pr30647012</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Nguyễn Tiến</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0973771307</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>thinhtien08@gmail.com</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-huong-lo-3-phuong-binh-hung-hoa/cho-4-15-60m-mot-tret-3-lau-tum-tren-da-lam-thanh-kho-pr30228772</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Ho Bao Giang</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0933957776</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>baogiang290594@gmail.com</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-vanh-dai-trong-phuong-phu-huu-2-prj-melosa-garden/cho-gap-can-goc-khang-dien-tien-nghi-khong-gian-xanh-20tr-thang-pr30441427</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Longbdsnamdinh</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0901319986</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>longbdsnamdinh@gmail.com</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-huu-tho-xa-phuoc-kieng-prj-lang-dai-hoc-abc/cho-biet-thu-khu-lk-quan-7-co-8-phong-ngu-7wc-noi-that-cao-cap-lh-0901319986-pr13681178</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Nguyễn Tuấn Anh</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0918811784</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>anhnguyencanhtuan@gmail.com</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-duc-canh-phuong-tan-phong-9-prj-my-giang/cho-biet-thu-lien-ke-phu-hung-q7-gia-33-trieu-thang-pr15885519</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Vngleasing</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0933384739</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>vngleasing@gmail.com</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-pho-ton-duc-thang-phuong-ben-nghe-prj-vinhomes-golden-river-ba-son/cho-biet-thu-bason-da-hoan-thien-noi-that-gia-chi-140-trieu-thang-pr25290601</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Kenn Hoang</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0865502105</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>qkhanh2105@gmail.com</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ly-chinh-thang-phuong-vo-thi-sau/hem-oto-dtsd-180m2-co-ho-tro-dich-lh-0865502105-pr30701799</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Phạm Viết Lam</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0768076894</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>pvlam211094@gmail.com</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-anh-thu_1-xa-ba-diem-prj-khu-dan-cu-hoang-hai/cho-1-trech-2-lau-huy-co-the-theo-tung-tang-pr30699197</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Nguyễn Đại Bình</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0907557227</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>binhvina2@gmail.com</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-van-linh-xa-binh-hung-1-prj-mizuki-park/cho-pho-5x20m-dao-thien-park-pr30155152</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Huy Nguyen</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0971816646</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>quanghuy1444@gmail.com</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-dao-duy-anh-phuong-9-12/chinh-chu-cho-nguyen-can-gia-tot-o-88-11-9-quan-phu-nhuan-pr30676352</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Phương Anh</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0909547733</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>qprachel@gmail.com</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-pham-thai-buong-phuong-tan-phong-9-prj-nam-long-1/cho-biet-thu-phu-my-hung-quan-7-co-ho-boi-sauna-pool-villa-for-rent-in-phu-my-hung-d-7-pr30685647</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Huỳnh Cẩm Tiên</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0938691939</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>thientu1111@gmail.com</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-chu-van-an-phuong-12-7/cho-nguyen-can-ngay-trung-tam-binh-thanh-full-noi-that-thoang-mat-view-dep-chi-12tr-pr30647039</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Chienhien_83@yahoo.com.vn</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0909677159</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>chienhien_83@yahoo.com.vn</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-phan-huy-ich-phuong-14-8/cho-nguyen-can-f14-go-vap-dt-4x13-duc-1-tam-co-3pn-hem-6m-pr30653802</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Lê Huy Hoàng</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0989863324</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>hoanglehuy309@gmail.com</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-pham-van-hai-69/pha-san-het-von-duy-tri-nen-can-sang-nhuong-lai-gap-pr30646112</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Đăng Tin Batdongsan</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0982710181</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ho-thanh-bien-phuong-4-15/c-nguyen-can-4-quan-8-gia-re-chi-12-trieu-thang-pr30641460</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Ms Lai</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0944777159</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>laitrietnhung@gmail.com</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-phuong-phuoc-long-b-prj-khu-dan-cu-nam-long/cho-nguyen-can-1-tret-2-lau-thuoc-kdc-p-tp-thu-duc-tp-ho-chi-minh-pr30445126</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>0909229606</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0909229606</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-binh-tri-dong-phuong-binh-tri-dong/ban-mat-tien-hem-huynh-tan-phat-pr30708718</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>0909008977</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0909008977</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ben-van-don-phuong-2/mat-bang-kinh-doanh-mat-tien-304-thu-dau-mot-pr30707825</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>0908958440</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0908958440</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-thanh-xuan-22-phuong-thanh-xuan/ban-gap-tu-hiep-40m-3-tang-mt-3m-1-ty-85-o-luon-pr30707584</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>0919000057</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0919000057</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-go-xoai-phuong-binh-hung-hoa-a/khu-kinh-doanh-mua-ban-sam-uat-di-chuyen-thuan-tien-sang-cac-quan-pr30701374</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>0902383234</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0902383234</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-quang-trung-phuong-11-8/ban-dat-lien-ke-moi-mo-vao-vinhones-ocean-park-tai-trau-quy-gia-pr30700614</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>A. Khanh</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0938122272</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-cuu-van-phuong-17-1/chinh-chu-cho-o-ket-hop-phong-hem-xe-hoi-pr30689788</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>0917554264</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0917554264</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-phan-xich-long-phuong-1-22/ban-truong-dang-que-go-vap-ba-tang-may-lanh-21m2-365ty-pr30682232</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>0909809093</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0909809093</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-lien-khu-210-65/ban-shophouse-tm20-tai-moonlight-buleva-binh-tan-pr30681921</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>0779192912</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0779192912</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tinh-lo-10-phuong-binh-tri-dong/ban-van-quan-gio-ho-long-long-35m-28-ty-the-duc-tung-tang-pr30670738</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Bình</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>0919634989</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-phuong-son-ky/can-sang-nhuong-can-ho-dich-vu-o-ngay-cho-tan-huong-pr30656286</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>098 723 61 10</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ba-diem-10-xa-ba-diem/ban-mat-pho-truong-dinh-126m2-thang-may-he-rong-8m-kinh-doanh-pr30656260</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>091 895 65 24</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ben-me-coc-phuong-15-2/ban-pho-cho-kham-thien-vi-tri-tuyet-voi-24m2-225-ty-pr30656259</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>094 795 59 95</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-chu-van-an-phuong-12-7/chinh-toi-can-ban-gap-lo-dat-o-123m2-gia-mua-dich-pr30654918</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>0908509299</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0908509299</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-vo-thi-nho-59/em-dang-co-vai-manh-dat-gia-re-can-ban-gap-pr30650940</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>0908276583</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0908276583</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-10-phuong-hiep-binh-phuoc/vuong-thua-vu-thanh-xuan-o-to-lo-goc-47m2-nhinh-7-ty-pr30641298</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Hiếu</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0795669535</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-dinh-khoi-phuong-4-20/cho-1239-qtan-binh-7trthang-pr30641181</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>0787762668</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0787762668</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ton-that-thuyet-phuong-1/dat-ngay-mat-tien-dt742-doi-dien-kcn-vsip-2-so-san-pr30640195</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>0398083507</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-thanh-xuan-52-1-phuong-thanh-xuan/ban-lac-long-quan-tan-binh-44m2-3lau-3pn-pr30609519</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>0901629262</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-to-ngoc-van-phuong-thanh-xuan/chinh-hu-ban-nhu-kieu-quoc-tuan-pr30609042</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>0782630228</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-to-ngoc-van-phuong-thanh-xuan/chinh-chu-cho-gia-re-nhu-cho-mua-covid-ngo-112-tay-son-dong-da-pr30608541</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>0909786788</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tan-chanh-hiep-10-phuong-tan-chanh-hiep-1/ban-ban-sieu-pham-thai-ha-5-tang-lung-linh-gia-5-28-ty-pr30608537</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>0786012877</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-huynh-thi-hai-phuong-tan-chanh-hiep-1/-lang-60m2-53-ty-lo-goc-sieu-thoang-pr30608536</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>0908853880</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tan-thoi-hiep-6-phuong-tan-thoi-hiep/ban-gap-dat-o-tai-do-thi-khu-pho-8-thi-tran-hoc-mon-4x17-3-5m-pr30608535</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>0906361820</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-thanh-loc-26-phuong-thanh-loc-3/ban-lo-dat-mat-world-bank-thuoc-khu-tdc-tam-ki-le-chan-hp-pr30608018</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0966664348</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tan-chanh-hiep-7-phuong-tan-chanh-hiep-1/ban-dan-xay-cuc-pham-pho-trung-luc-pr30607537</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>0764158969</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-phan-van-hon-phuong-tan-thoi-nhat-1/hot-mat-ngo-pham-ngoc-thach-kinh-doanh-o-to-do-mt-5m-chi-3-ty-pr30605910</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>0974359878</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tan-chanh-hiep-25-phuong-tan-chanh-hiep-1/can-tien-ban-gap-vua-sua-lai-moi-dep-tuyet-voi-pr30605447</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>0907054788</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-cach-mang-thang-tam-phuong-5-17/ban-chinh-chu-pho-hong-tien-long-bien-dep-4-tang-kinh-doanh-pr30605058</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>0868667842</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-pho-ly-thuong-kiet-phuong-13-10/cho-xuong-kho-bai-gia-re-tai-hai-phong-pr30603896</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>0909105899</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tong-van-hen-phuong-15-8/biet-thu-view-song-co-co-tai-du-an-casamia-calm-hoi-pr30603891</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>0979259888</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-nguyen-van-vinh-1-phuong-4-20/-dep-ton-that-tung-34m24-mt-36-gia298-ty-pr30603536</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>0902914954</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-tan-hai-phuong-13-10/-3-tang-can-cho-tai-khu-do-thi-bac-song-cam-pr30603527</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>0904487896</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-au-co-phuong-10-10/cho-can-ho-908-gh3-greenhouse-khu-do-thi-viet-hung-long-bien-h-pr30603517</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>0913845241</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>0913845241</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-hau-giang-phuong-5-10/mo-ban-51-sieu-pham-pho-sat-quoc-lo-1a-ck-khung-pr30515675</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>0387267569</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>0387267569</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-pham-van-chieu-phuong-13-8/can-ban-gap-de-ve-que-cham-soc-me-gia-pr30509663</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>0989378313</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>0989378313</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-11-1-phuong-phuoc-binh-1/ban-45m2-dep-huong-dong-nam-thuan-tien-di-lai-pr30503531</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>0932609075</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>0932609075</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-phan-huy-ich-phuong-12-8/-ban-chinh-chu-lien-khu-4-5-thuoc-huong-tay-4m-x-15m-pr30494008</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>0908818176</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>0908818176</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-yen-the-phuong-1-23/can-ban-gap-khu-d7-do-thi-linh-dam-quan-hoang-mai-pr30468050</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>091 588 81 05</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-so-25-phuong-4/ban-gap-dat-nguyen-van-cu-bo-de-long-bien-dt-55-m-mt-4-5m-pr30464742</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>0906 906 140</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-doan-van-bo-phuong-16/ban-long-binh-vi-tri-dac-dia-pr30463685</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>0932629680</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ton-that-thuyet-phuong-4/-dep-o-ngay-pho-kham-thien-dong-da-dt-99m2-x-4t-x-mt-4-3m-gia-25-5y-pr30432470</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>0909384167</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-xom-chieu-phuong-16/cho-nguyen-can-thuan-tien-cho-viec-kinh-doanh-pr30431306</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>0908280738</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-ton-that-thuyet-phuong-16/chinh-chu-can-ban-lo-dat-6x23-tho-cu-60-pr30429903</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>0903007634</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-pham-the-hien-phuong-7-6/cho-van-chieu-go-vap-5x20-5-tam-moi-dep-pr30429635</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>0944771551</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-pham-the-hien-phuong-6-10/-dep-nguyen-van-cu-o-t-ngo-thong-vp-pr30429180</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Người dùng ẩn danh</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>0914 498 388</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-me-coc-phuong-15-2/ban-dat-vang-chau-pha-phu-my-3-mat-tien-pr30429161</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Khách Vãng Lai</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>0909538336</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-duong-le-van-khuong-phuong-hiep-thanh-3/cho-chinh-chu-quan-12-pr30350460</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Thuhuongbds6789@gmail.com</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>0778329922</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://batdongsan.com.vn/cho-thue-nha-rieng-thi-tran-nha-be/chinh-chu-cho-1-tret-2-lau-huyen-tphcm-pr30104050</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="14.88671875" customWidth="1" min="2" max="2"/>
+    <col width="13.77734375" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
